--- a/ESPN sports website/IPL/Mumbai Indians/Tim David.xlsx
+++ b/ESPN sports website/IPL/Mumbai Indians/Tim David.xlsx
@@ -445,31 +445,31 @@
         <v>Tim David</v>
       </c>
       <c r="C2" t="str">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D2" t="str">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E2" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G2" t="str">
-        <v>255.55</v>
+        <v>150.00</v>
       </c>
       <c r="H2" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I2" t="str">
-        <v>Wankhede</v>
+        <v>Brabourne</v>
       </c>
       <c r="J2" t="str">
-        <v>May 17, 2022</v>
+        <v>March 27, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>Sunrisers won by 3 runs</v>
+        <v>Capitals won by 4 wickets (with 10 balls remaining)</v>
       </c>
     </row>
     <row r="3">
@@ -515,31 +515,31 @@
         <v>Tim David</v>
       </c>
       <c r="C4" t="str">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D4" t="str">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E4" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G4" t="str">
-        <v>150.00</v>
+        <v>309.09</v>
       </c>
       <c r="H4" t="str">
         <v>Delhi Capitals</v>
       </c>
       <c r="I4" t="str">
-        <v>Brabourne</v>
+        <v>Wankhede</v>
       </c>
       <c r="J4" t="str">
-        <v>March 27, 2022</v>
+        <v>May 21, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>Capitals won by 4 wickets (with 10 balls remaining)</v>
+        <v>Mumbai won by 5 wickets (with 5 balls remaining)</v>
       </c>
     </row>
     <row r="5">
@@ -550,31 +550,31 @@
         <v>Tim David</v>
       </c>
       <c r="C5" t="str">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D5" t="str">
         <v>9</v>
       </c>
       <c r="E5" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="str">
-        <v>144.44</v>
+        <v>222.22</v>
       </c>
       <c r="H5" t="str">
-        <v>Kolkata Knight Riders</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="I5" t="str">
         <v>DY Patil</v>
       </c>
       <c r="J5" t="str">
-        <v>May 09, 2022</v>
+        <v>April 30, 2022</v>
       </c>
       <c r="K5" t="str">
-        <v>KKR won by 52 runs</v>
+        <v>Mumbai won by 5 wickets (with 4 balls remaining)</v>
       </c>
     </row>
     <row r="6">
@@ -585,31 +585,31 @@
         <v>Tim David</v>
       </c>
       <c r="C6" t="str">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D6" t="str">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E6" t="str">
         <v>2</v>
       </c>
       <c r="F6" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6" t="str">
-        <v>222.22</v>
+        <v>209.52</v>
       </c>
       <c r="H6" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Gujarat Titans</v>
       </c>
       <c r="I6" t="str">
-        <v>DY Patil</v>
+        <v>Brabourne</v>
       </c>
       <c r="J6" t="str">
-        <v>April 30, 2022</v>
+        <v>May 06, 2022</v>
       </c>
       <c r="K6" t="str">
-        <v>Mumbai won by 5 wickets (with 4 balls remaining)</v>
+        <v>Mumbai won by 5 runs</v>
       </c>
     </row>
     <row r="7">
@@ -620,31 +620,31 @@
         <v>Tim David</v>
       </c>
       <c r="C7" t="str">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D7" t="str">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G7" t="str">
-        <v>309.09</v>
+        <v>144.44</v>
       </c>
       <c r="H7" t="str">
-        <v>Delhi Capitals</v>
+        <v>Kolkata Knight Riders</v>
       </c>
       <c r="I7" t="str">
-        <v>Wankhede</v>
+        <v>DY Patil</v>
       </c>
       <c r="J7" t="str">
-        <v>May 21, 2022</v>
+        <v>May 09, 2022</v>
       </c>
       <c r="K7" t="str">
-        <v>Mumbai won by 5 wickets (with 5 balls remaining)</v>
+        <v>KKR won by 52 runs</v>
       </c>
     </row>
     <row r="8">
@@ -655,31 +655,31 @@
         <v>Tim David</v>
       </c>
       <c r="C8" t="str">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D8" t="str">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E8" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" t="str">
         <v>4</v>
       </c>
       <c r="G8" t="str">
-        <v>209.52</v>
+        <v>255.55</v>
       </c>
       <c r="H8" t="str">
-        <v>Gujarat Titans</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="I8" t="str">
-        <v>Brabourne</v>
+        <v>Wankhede</v>
       </c>
       <c r="J8" t="str">
-        <v>May 06, 2022</v>
+        <v>May 17, 2022</v>
       </c>
       <c r="K8" t="str">
-        <v>Mumbai won by 5 runs</v>
+        <v>Sunrisers won by 3 runs</v>
       </c>
     </row>
     <row r="9">
